--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cxadr-Cxadr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="H2">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="I2">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="J2">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="N2">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="O2">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="P2">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="Q2">
-        <v>17.923910864896</v>
+        <v>38.302990701481</v>
       </c>
       <c r="R2">
-        <v>161.315197784064</v>
+        <v>344.726916313329</v>
       </c>
       <c r="S2">
-        <v>0.2071286042467196</v>
+        <v>0.2840842165723605</v>
       </c>
       <c r="T2">
-        <v>0.2071286042467196</v>
+        <v>0.2840842165723605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="H3">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="I3">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="J3">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,25 +617,25 @@
         <v>2.375518</v>
       </c>
       <c r="N3">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="O3">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="P3">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="Q3">
-        <v>10.057145037952</v>
+        <v>14.701940746438</v>
       </c>
       <c r="R3">
-        <v>90.51430534156798</v>
+        <v>132.317466717942</v>
       </c>
       <c r="S3">
-        <v>0.1162203065011675</v>
+        <v>0.1090408148960446</v>
       </c>
       <c r="T3">
-        <v>0.1162203065011675</v>
+        <v>0.1090408148960445</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="H4">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="I4">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="J4">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="N4">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="O4">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="P4">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="Q4">
-        <v>10.45095340712533</v>
+        <v>18.58641925018633</v>
       </c>
       <c r="R4">
-        <v>94.058580664128</v>
+        <v>167.277773251677</v>
       </c>
       <c r="S4">
-        <v>0.1207711536049267</v>
+        <v>0.1378510725892344</v>
       </c>
       <c r="T4">
-        <v>0.1207711536049267</v>
+        <v>0.1378510725892344</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,46 +720,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="H5">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="I5">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="J5">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="N5">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="O5">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="P5">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="Q5">
-        <v>0.9513480486613333</v>
+        <v>0.272276270354</v>
       </c>
       <c r="R5">
-        <v>8.562132437951998</v>
+        <v>2.450486433186</v>
       </c>
       <c r="S5">
-        <v>0.010993772227354</v>
+        <v>0.002019408655517064</v>
       </c>
       <c r="T5">
-        <v>0.010993772227354</v>
+        <v>0.002019408655517063</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,13 +785,13 @@
         <v>2.375518</v>
       </c>
       <c r="H6">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="I6">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="J6">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="N6">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="O6">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="P6">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="Q6">
-        <v>10.057145037952</v>
+        <v>14.701940746438</v>
       </c>
       <c r="R6">
-        <v>90.51430534156798</v>
+        <v>132.317466717942</v>
       </c>
       <c r="S6">
-        <v>0.1162203065011675</v>
+        <v>0.1090408148960446</v>
       </c>
       <c r="T6">
-        <v>0.1162203065011675</v>
+        <v>0.1090408148960445</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,13 +847,13 @@
         <v>2.375518</v>
       </c>
       <c r="H7">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="I7">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="J7">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,25 +865,25 @@
         <v>2.375518</v>
       </c>
       <c r="N7">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="O7">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="P7">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="Q7">
-        <v>5.643085768323998</v>
+        <v>5.643085768324</v>
       </c>
       <c r="R7">
-        <v>50.78777191491598</v>
+        <v>50.78777191491599</v>
       </c>
       <c r="S7">
-        <v>0.06521146459875897</v>
+        <v>0.04185343155157272</v>
       </c>
       <c r="T7">
-        <v>0.06521146459875897</v>
+        <v>0.04185343155157271</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.375518</v>
       </c>
       <c r="H8">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="I8">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="J8">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="N8">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="O8">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="P8">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="Q8">
-        <v>5.864052493487332</v>
+        <v>7.134075681827333</v>
       </c>
       <c r="R8">
-        <v>52.77647244138599</v>
+        <v>64.20668113644599</v>
       </c>
       <c r="S8">
-        <v>0.06776495472226141</v>
+        <v>0.05291175085608877</v>
       </c>
       <c r="T8">
-        <v>0.06776495472226141</v>
+        <v>0.05291175085608876</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,43 +971,43 @@
         <v>2.375518</v>
       </c>
       <c r="H9">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="I9">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="J9">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="N9">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="O9">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="P9">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="Q9">
-        <v>0.5338034416193332</v>
+        <v>0.104508538892</v>
       </c>
       <c r="R9">
-        <v>4.804230974573999</v>
+        <v>0.9405768500279998</v>
       </c>
       <c r="S9">
-        <v>0.006168629304068416</v>
+        <v>0.0007751150981301299</v>
       </c>
       <c r="T9">
-        <v>0.006168629304068416</v>
+        <v>0.0007751150981301297</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="H10">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="I10">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="J10">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="N10">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="O10">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="P10">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="Q10">
-        <v>10.45095340712533</v>
+        <v>18.58641925018633</v>
       </c>
       <c r="R10">
-        <v>94.058580664128</v>
+        <v>167.277773251677</v>
       </c>
       <c r="S10">
-        <v>0.1207711536049267</v>
+        <v>0.1378510725892344</v>
       </c>
       <c r="T10">
-        <v>0.1207711536049267</v>
+        <v>0.1378510725892344</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="H11">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="I11">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="J11">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,25 +1113,25 @@
         <v>2.375518</v>
       </c>
       <c r="N11">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="O11">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="P11">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="Q11">
-        <v>5.864052493487332</v>
+        <v>7.134075681827333</v>
       </c>
       <c r="R11">
-        <v>52.77647244138599</v>
+        <v>64.20668113644599</v>
       </c>
       <c r="S11">
-        <v>0.06776495472226141</v>
+        <v>0.05291175085608877</v>
       </c>
       <c r="T11">
-        <v>0.06776495472226141</v>
+        <v>0.05291175085608876</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="H12">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="I12">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="J12">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="N12">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="O12">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="P12">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="Q12">
-        <v>6.093671628986777</v>
+        <v>9.019008025666777</v>
       </c>
       <c r="R12">
-        <v>54.843044660881</v>
+        <v>81.17107223100101</v>
       </c>
       <c r="S12">
-        <v>0.07041843204664859</v>
+        <v>0.06689184792905251</v>
       </c>
       <c r="T12">
-        <v>0.07041843204664859</v>
+        <v>0.06689184792905251</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,46 +1216,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="H13">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="I13">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="J13">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="N13">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="O13">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="P13">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="Q13">
-        <v>0.5547056223087777</v>
+        <v>0.1321212996686666</v>
       </c>
       <c r="R13">
-        <v>4.992350600779</v>
+        <v>1.189091697018</v>
       </c>
       <c r="S13">
-        <v>0.006410174776178334</v>
+        <v>0.0009799124094882754</v>
       </c>
       <c r="T13">
-        <v>0.006410174776178334</v>
+        <v>0.0009799124094882754</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,22 +1272,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="H14">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="I14">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="J14">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.233664</v>
+        <v>6.188941</v>
       </c>
       <c r="N14">
-        <v>12.700992</v>
+        <v>18.566823</v>
       </c>
       <c r="O14">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="P14">
-        <v>0.4551138365801677</v>
+        <v>0.5329955127131565</v>
       </c>
       <c r="Q14">
-        <v>0.9513480486613333</v>
+        <v>0.272276270354</v>
       </c>
       <c r="R14">
-        <v>8.562132437951998</v>
+        <v>2.450486433186</v>
       </c>
       <c r="S14">
-        <v>0.010993772227354</v>
+        <v>0.002019408655517064</v>
       </c>
       <c r="T14">
-        <v>0.010993772227354</v>
+        <v>0.002019408655517063</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,22 +1334,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="H15">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="I15">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="J15">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,25 +1361,25 @@
         <v>2.375518</v>
       </c>
       <c r="N15">
-        <v>7.126553999999999</v>
+        <v>7.126554</v>
       </c>
       <c r="O15">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018362</v>
       </c>
       <c r="P15">
-        <v>0.2553653551262562</v>
+        <v>0.2045811124018361</v>
       </c>
       <c r="Q15">
-        <v>0.5338034416193332</v>
+        <v>0.104508538892</v>
       </c>
       <c r="R15">
-        <v>4.804230974573999</v>
+        <v>0.9405768500279998</v>
       </c>
       <c r="S15">
-        <v>0.006168629304068416</v>
+        <v>0.0007751150981301299</v>
       </c>
       <c r="T15">
-        <v>0.006168629304068416</v>
+        <v>0.0007751150981301297</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,22 +1396,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="H16">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="I16">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="J16">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.468536333333333</v>
+        <v>3.003166333333333</v>
       </c>
       <c r="N16">
-        <v>7.405609</v>
+        <v>9.009499</v>
       </c>
       <c r="O16">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="P16">
-        <v>0.265364715150015</v>
+        <v>0.2586345837838639</v>
       </c>
       <c r="Q16">
-        <v>0.5547056223087777</v>
+        <v>0.1321212996686666</v>
       </c>
       <c r="R16">
-        <v>4.992350600779</v>
+        <v>1.189091697018</v>
       </c>
       <c r="S16">
-        <v>0.006410174776178334</v>
+        <v>0.0009799124094882754</v>
       </c>
       <c r="T16">
-        <v>0.006410174776178334</v>
+        <v>0.0009799124094882754</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,52 +1458,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="H17">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="I17">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="J17">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.2247103333333333</v>
+        <v>0.043994</v>
       </c>
       <c r="N17">
-        <v>0.6741309999999999</v>
+        <v>0.131982</v>
       </c>
       <c r="O17">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="P17">
-        <v>0.02415609314356115</v>
+        <v>0.003788791101143573</v>
       </c>
       <c r="Q17">
-        <v>0.05049473390677777</v>
+        <v>0.001935472036</v>
       </c>
       <c r="R17">
-        <v>0.4544526051609999</v>
+        <v>0.017419248324</v>
       </c>
       <c r="S17">
-        <v>0.000583516835960402</v>
+        <v>1.435493800810473E-05</v>
       </c>
       <c r="T17">
-        <v>0.000583516835960402</v>
+        <v>1.435493800810473E-05</v>
       </c>
     </row>
   </sheetData>
